--- a/CPI2019.xlsx
+++ b/CPI2019.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2172\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ISAURA\CPG 2020-2\ESTADÍSTICA II\TRABAJO EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_31120A76AA5D44CFDA0245050B5D32D35D560AAA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D36966FA-EB5B-4FB8-9A90-1B9C52A26DEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7DF7D76-073B-4E79-B070-C48E54BD2A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23055" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPI2019" sheetId="5" r:id="rId1"/>
     <sheet name="changes 2018-2019" sheetId="2" r:id="rId2"/>
-    <sheet name="CPI Timeseries 2012 - 2019" sheetId="4" r:id="rId3"/>
+    <sheet name="CPI2012-2019" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'changes 2018-2019'!$A$3:$I$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CPI Timeseries 2012 - 2019'!$A$3:$AD$183</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'CPI Timeseries 2012 - 2019'!$A:$A,'CPI Timeseries 2012 - 2019'!$3:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CPI2012-2019'!$A$3:$AD$183</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'CPI2012-2019'!$A:$A,'CPI2012-2019'!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2172,48 +2172,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -2777,11 +2777,11 @@
   </sheetPr>
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -15137,7 +15137,7 @@
       <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="3" customWidth="1"/>
@@ -37923,14 +37923,14 @@
   </sheetPr>
   <dimension ref="A1:AD183"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="25"/>
@@ -54594,9 +54594,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54732,19 +54735,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54768,9 +54767,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CPI2019.xlsx
+++ b/CPI2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ISAURA\CPG 2020-2\ESTADÍSTICA II\TRABAJO EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1D51A6-246C-45C8-A387-F88778B87B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD9CE-B8B5-4ED9-886A-8DFEDF751EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CPI2019.xlsx
+++ b/CPI2019.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ISAURA\CPG 2020-2\ESTADÍSTICA II\TRABAJO EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFD9CE-B8B5-4ED9-886A-8DFEDF751EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7132EF-0836-4853-AE40-4DEBD4731FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CPIT" sheetId="4" r:id="rId1"/>
+    <sheet name="CPI2012-2019" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CPIT!$A$3:$AD$183</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">CPIT!$A:$A,CPIT!$3:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CPI2012-2019'!$A$3:$AD$183</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'CPI2012-2019'!$A:$A,'CPI2012-2019'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2496,7 +2496,7 @@
   <dimension ref="A1:AD183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
@@ -19166,12 +19166,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19307,15 +19304,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19339,10 +19340,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>